--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\Programmering_V3\excel_to_json_csv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{680266DA-D2F0-40F8-ABD5-666E5279E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C2784A-9811-49C0-AD27-911190E2CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2300" windowWidth="30440" windowHeight="17120" activeTab="2" xr2:uid="{7AF93EAF-040B-4E92-8D92-4C4D98493B52}"/>
+    <workbookView xWindow="3010" yWindow="1630" windowWidth="30440" windowHeight="17120" activeTab="2" xr2:uid="{7AF93EAF-040B-4E92-8D92-4C4D98493B52}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -602,6 +597,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -692,6 +688,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -769,5 +766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>